--- a/docs/네모내모 기능정리.xlsx
+++ b/docs/네모내모 기능정리.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yyhgo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yyhgo\git\nara-team-project\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A779A24-20BE-421C-9331-92C6E184C370}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE634896-7139-47E4-876B-B0C2A5563021}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1668" yWindow="504" windowWidth="16128" windowHeight="11784" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="142">
   <si>
     <t>구분</t>
   </si>
@@ -532,6 +532,42 @@
   </si>
   <si>
     <t>일정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항게시판</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신규회원소개</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>피드게시판</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소통 게시판</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시판</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진등록, 댓글</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동으로 보여지도록</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진등록, 댓글, 모든 회원이 가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사진등록, 댓글, 등록권한</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -602,7 +638,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -796,13 +832,62 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -884,31 +969,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -923,15 +1005,30 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
@@ -1248,10 +1345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -1286,8 +1383,8 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="42"/>
-      <c r="B2" s="38" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="37" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -1302,8 +1399,8 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="62.4" x14ac:dyDescent="0.35">
-      <c r="A3" s="34"/>
-      <c r="B3" s="39"/>
+      <c r="A3" s="31"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="8" t="s">
         <v>8</v>
       </c>
@@ -1316,8 +1413,8 @@
       <c r="F3" s="19"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="34"/>
-      <c r="B4" s="39"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="8" t="s">
         <v>11</v>
       </c>
@@ -1328,8 +1425,8 @@
       <c r="F4" s="19"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="34"/>
-      <c r="B5" s="39"/>
+      <c r="A5" s="31"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="8" t="s">
         <v>13</v>
       </c>
@@ -1342,7 +1439,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="43"/>
+      <c r="A6" s="30"/>
       <c r="B6" s="7"/>
       <c r="C6" s="8"/>
       <c r="D6" s="9"/>
@@ -1350,10 +1447,10 @@
       <c r="F6" s="19"/>
     </row>
     <row r="7" spans="1:6" ht="31.2" x14ac:dyDescent="0.35">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="39" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="11" t="s">
@@ -1366,8 +1463,8 @@
       <c r="F7" s="23"/>
     </row>
     <row r="8" spans="1:6" ht="31.2" x14ac:dyDescent="0.35">
-      <c r="A8" s="34"/>
-      <c r="B8" s="40"/>
+      <c r="A8" s="31"/>
+      <c r="B8" s="39"/>
       <c r="C8" s="11" t="s">
         <v>18</v>
       </c>
@@ -1382,8 +1479,8 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="34"/>
-      <c r="B9" s="40"/>
+      <c r="A9" s="31"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="11" t="s">
         <v>21</v>
       </c>
@@ -1394,8 +1491,8 @@
       <c r="F9" s="23"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="34"/>
-      <c r="B10" s="40"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="11" t="s">
         <v>23</v>
       </c>
@@ -1406,8 +1503,8 @@
       <c r="F10" s="23"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="37"/>
-      <c r="B11" s="38" t="s">
+      <c r="A11" s="32"/>
+      <c r="B11" s="37" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="10" t="s">
@@ -1420,8 +1517,8 @@
       <c r="F11" s="23"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="37"/>
-      <c r="B12" s="41"/>
+      <c r="A12" s="32"/>
+      <c r="B12" s="40"/>
       <c r="C12" s="11" t="s">
         <v>28</v>
       </c>
@@ -1432,8 +1529,8 @@
       <c r="F12" s="23"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="37"/>
-      <c r="B13" s="41"/>
+      <c r="A13" s="32"/>
+      <c r="B13" s="40"/>
       <c r="C13" s="11" t="s">
         <v>30</v>
       </c>
@@ -1444,8 +1541,8 @@
       <c r="F13" s="23"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="37"/>
-      <c r="B14" s="41"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="40"/>
       <c r="C14" s="11" t="s">
         <v>32</v>
       </c>
@@ -1456,8 +1553,8 @@
       <c r="F14" s="23"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="37"/>
-      <c r="B15" s="41"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="40"/>
       <c r="C15" s="11" t="s">
         <v>34</v>
       </c>
@@ -1468,8 +1565,8 @@
       <c r="F15" s="23"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="37"/>
-      <c r="B16" s="41"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="6" t="s">
         <v>36</v>
       </c>
@@ -1494,7 +1591,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="52.2" x14ac:dyDescent="0.35">
-      <c r="A18" s="34" t="s">
+      <c r="A18" s="31" t="s">
         <v>131</v>
       </c>
       <c r="B18" s="35" t="s">
@@ -1510,7 +1607,7 @@
       <c r="F18" s="22"/>
     </row>
     <row r="19" spans="1:6" ht="31.2" x14ac:dyDescent="0.35">
-      <c r="A19" s="34"/>
+      <c r="A19" s="31"/>
       <c r="B19" s="36"/>
       <c r="C19" s="1" t="s">
         <v>43</v>
@@ -1524,7 +1621,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A20" s="34"/>
+      <c r="A20" s="31"/>
       <c r="B20" s="36"/>
       <c r="C20" s="1" t="s">
         <v>44</v>
@@ -1538,7 +1635,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="34.799999999999997" x14ac:dyDescent="0.35">
-      <c r="A21" s="34"/>
+      <c r="A21" s="31"/>
       <c r="B21" s="36"/>
       <c r="C21" s="17" t="s">
         <v>45</v>
@@ -1550,7 +1647,7 @@
       <c r="F21" s="25"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="31" t="s">
         <v>130</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -1566,7 +1663,7 @@
       <c r="F22" s="22"/>
     </row>
     <row r="23" spans="1:6" ht="31.2" x14ac:dyDescent="0.35">
-      <c r="A23" s="34"/>
+      <c r="A23" s="31"/>
       <c r="B23" s="8" t="s">
         <v>49</v>
       </c>
@@ -1580,7 +1677,7 @@
       <c r="F23" s="22"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="34"/>
+      <c r="A24" s="31"/>
       <c r="B24" s="8" t="s">
         <v>50</v>
       </c>
@@ -1594,7 +1691,7 @@
       <c r="F24" s="22"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="34"/>
+      <c r="A25" s="31"/>
       <c r="B25" s="8" t="s">
         <v>51</v>
       </c>
@@ -1606,8 +1703,8 @@
       <c r="F25" s="22"/>
     </row>
     <row r="26" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A26" s="34"/>
-      <c r="B26" s="37" t="s">
+      <c r="A26" s="31"/>
+      <c r="B26" s="32" t="s">
         <v>52</v>
       </c>
       <c r="C26" s="8" t="s">
@@ -1620,8 +1717,8 @@
       <c r="F26" s="22"/>
     </row>
     <row r="27" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A27" s="34"/>
-      <c r="B27" s="37"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="32"/>
       <c r="C27" s="1"/>
       <c r="D27" s="13" t="s">
         <v>65</v>
@@ -1630,8 +1727,8 @@
       <c r="F27" s="22"/>
     </row>
     <row r="28" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A28" s="34"/>
-      <c r="B28" s="37"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="32"/>
       <c r="C28" s="8" t="s">
         <v>58</v>
       </c>
@@ -1642,7 +1739,7 @@
       <c r="F28" s="22"/>
     </row>
     <row r="29" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A29" s="34"/>
+      <c r="A29" s="31"/>
       <c r="B29" s="8" t="s">
         <v>53</v>
       </c>
@@ -1656,121 +1753,121 @@
       <c r="F29" s="22"/>
     </row>
     <row r="30" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A30" s="34" t="s">
+      <c r="A30" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="B30" s="33" t="s">
+      <c r="B30" s="34" t="s">
         <v>75</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="D30" s="33" t="s">
+      <c r="D30" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="E30" s="33" t="s">
+      <c r="E30" s="34" t="s">
         <v>90</v>
       </c>
       <c r="F30" s="9"/>
     </row>
     <row r="31" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A31" s="34"/>
-      <c r="B31" s="33"/>
+      <c r="A31" s="31"/>
+      <c r="B31" s="34"/>
       <c r="C31" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
       <c r="F31" s="9"/>
     </row>
     <row r="32" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A32" s="34"/>
-      <c r="B32" s="33"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="34"/>
       <c r="C32" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
       <c r="F32" s="9"/>
     </row>
     <row r="33" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A33" s="34"/>
-      <c r="B33" s="33" t="s">
+      <c r="A33" s="31"/>
+      <c r="B33" s="34" t="s">
         <v>76</v>
       </c>
       <c r="C33" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D33" s="33" t="s">
+      <c r="D33" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="E33" s="33" t="s">
+      <c r="E33" s="34" t="s">
         <v>91</v>
       </c>
       <c r="F33" s="9"/>
     </row>
     <row r="34" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A34" s="34"/>
-      <c r="B34" s="33"/>
+      <c r="A34" s="31"/>
+      <c r="B34" s="34"/>
       <c r="C34" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
       <c r="F34" s="9"/>
     </row>
     <row r="35" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A35" s="34"/>
-      <c r="B35" s="33"/>
+      <c r="A35" s="31"/>
+      <c r="B35" s="34"/>
       <c r="C35" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
       <c r="F35" s="9"/>
     </row>
     <row r="36" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A36" s="34"/>
-      <c r="B36" s="33" t="s">
+      <c r="A36" s="31"/>
+      <c r="B36" s="34" t="s">
         <v>77</v>
       </c>
       <c r="C36" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="D36" s="33" t="s">
+      <c r="D36" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="E36" s="33"/>
+      <c r="E36" s="34"/>
       <c r="F36" s="9"/>
     </row>
     <row r="37" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A37" s="34"/>
-      <c r="B37" s="33"/>
+      <c r="A37" s="31"/>
+      <c r="B37" s="34"/>
       <c r="C37" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
       <c r="F37" s="9"/>
     </row>
     <row r="38" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="44"/>
-      <c r="B38" s="33"/>
+      <c r="A38" s="33"/>
+      <c r="B38" s="34"/>
       <c r="C38" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
       <c r="F38" s="9"/>
     </row>
     <row r="39" spans="1:6" ht="16.2" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="29" t="s">
+      <c r="A39" s="41" t="s">
         <v>93</v>
       </c>
-      <c r="B39" s="31" t="s">
+      <c r="B39" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="C39" s="31" t="s">
+      <c r="C39" s="43" t="s">
         <v>95</v>
       </c>
       <c r="D39" s="28" t="s">
@@ -1784,10 +1881,10 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="30"/>
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33" t="s">
+      <c r="A40" s="42"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34" t="s">
         <v>105</v>
       </c>
       <c r="E40" s="27" t="s">
@@ -1798,21 +1895,21 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="30"/>
-      <c r="B41" s="33"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
+      <c r="A41" s="42"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
       <c r="E41" s="27" t="s">
         <v>108</v>
       </c>
       <c r="F41" s="27"/>
     </row>
     <row r="42" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="30"/>
-      <c r="B42" s="33" t="s">
+      <c r="A42" s="42"/>
+      <c r="B42" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="C42" s="33" t="s">
+      <c r="C42" s="34" t="s">
         <v>96</v>
       </c>
       <c r="D42" s="27" t="s">
@@ -1826,9 +1923,9 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="30"/>
-      <c r="B43" s="33"/>
-      <c r="C43" s="33"/>
+      <c r="A43" s="42"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="34"/>
       <c r="D43" s="27" t="s">
         <v>112</v>
       </c>
@@ -1840,7 +1937,7 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A44" s="30"/>
+      <c r="A44" s="42"/>
       <c r="B44" s="27" t="s">
         <v>97</v>
       </c>
@@ -1858,7 +1955,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A45" s="31"/>
+      <c r="A45" s="43"/>
       <c r="B45" s="27" t="s">
         <v>98</v>
       </c>
@@ -1876,13 +1973,13 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="32" t="s">
+      <c r="A46" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="B46" s="32" t="s">
+      <c r="B46" s="44" t="s">
         <v>99</v>
       </c>
-      <c r="C46" s="32" t="s">
+      <c r="C46" s="44" t="s">
         <v>99</v>
       </c>
       <c r="D46" s="27" t="s">
@@ -1894,9 +1991,9 @@
       <c r="F46" s="27"/>
     </row>
     <row r="47" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="30"/>
-      <c r="B47" s="31"/>
-      <c r="C47" s="31"/>
+      <c r="A47" s="42"/>
+      <c r="B47" s="43"/>
+      <c r="C47" s="43"/>
       <c r="D47" s="27" t="s">
         <v>122</v>
       </c>
@@ -1906,7 +2003,7 @@
       <c r="F47" s="27"/>
     </row>
     <row r="48" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A48" s="30"/>
+      <c r="A48" s="42"/>
       <c r="B48" s="27" t="s">
         <v>100</v>
       </c>
@@ -1924,7 +2021,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A49" s="31"/>
+      <c r="A49" s="43"/>
       <c r="B49" s="27" t="s">
         <v>101</v>
       </c>
@@ -1941,28 +2038,58 @@
         <v>128</v>
       </c>
     </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="B51" s="46" t="s">
+        <v>133</v>
+      </c>
+      <c r="C51" s="47" t="s">
+        <v>141</v>
+      </c>
+      <c r="D51" s="48"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" s="36"/>
+      <c r="B52" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="C52" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="D52" s="51"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" s="36"/>
+      <c r="B53" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="C53" s="50" t="s">
+        <v>138</v>
+      </c>
+      <c r="D53" s="51"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="36"/>
+      <c r="B54" s="49"/>
+      <c r="C54" s="50"/>
+      <c r="D54" s="51"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="45"/>
+      <c r="B55" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="C55" s="53" t="s">
+        <v>140</v>
+      </c>
+      <c r="D55" s="54"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E5" xr:uid="{85309E91-2D87-430F-89B8-FD2C51B1343F}"/>
-  <mergeCells count="29">
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A22:A29"/>
-    <mergeCell ref="A30:A38"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="D36:D38"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="B26:B28"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="B11:B16"/>
+  <mergeCells count="30">
+    <mergeCell ref="A51:A55"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A39:A45"/>
     <mergeCell ref="A46:A49"/>
@@ -1973,6 +2100,25 @@
     <mergeCell ref="B39:B41"/>
     <mergeCell ref="B42:B43"/>
     <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B18:B21"/>
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="A22:A29"/>
+    <mergeCell ref="A30:A38"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
